--- a/Filtered_By_Region/NCR/NCR_HEALTH.xlsx
+++ b/Filtered_By_Region/NCR/NCR_HEALTH.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +565,11 @@
           <t>Other Remarks</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1002,7 +1008,6 @@
           <t>July 18, 2025</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
           <t>PB-SDO-MKT-2024-008</t>
@@ -1247,8 +1252,6 @@
           <t>May 6, 2025</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
           <t>May 8, 2024</t>
@@ -1361,8 +1364,6 @@
           <t>December 2, 2024</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
           <t>May 8, 2024</t>
@@ -1393,7 +1394,6 @@
           <t>OPEN BUILDERS INCORPORATED</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2121,7 +2121,6 @@
           <t>Emica Builders and Supply</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2239,7 +2238,6 @@
           <t>Emica Builders and Supply</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2483,6 +2481,79 @@
       <c r="Z17" t="inlineStr">
         <is>
           <t>with subaro downloaded already batch 13</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AA2:AA17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/NCR/NCR_HEALTH.xlsx
+++ b/Filtered_By_Region/NCR/NCR_HEALTH.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total Physical Target</t>
+          <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Batch</t>
+          <t>BATCH</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -565,7 +565,32 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Reverted</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Not yet started</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Under Procurement</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites On Going</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Completed</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -608,11 +633,6 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities (with Roofing, with Counter, with Tile Finish)</t>
@@ -620,11 +640,6 @@
       </c>
       <c r="K2" t="n">
         <v>943148.5</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M2" t="n">
         <v>933992.7</v>
@@ -730,11 +745,6 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities (with Roofing, with Counter, with Tile Finish)</t>
@@ -742,11 +752,6 @@
       </c>
       <c r="K3" t="n">
         <v>1098292.86</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M3" t="n">
         <v>884385.37</v>
@@ -852,11 +857,6 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities (with Roofing, with Counter, with Tile Finish)</t>
@@ -864,11 +864,6 @@
       </c>
       <c r="K4" t="n">
         <v>558579.85</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M4" t="n">
         <v>553107.2</v>
@@ -974,11 +969,6 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Repair of School Clinic</t>
@@ -986,11 +976,6 @@
       </c>
       <c r="K5" t="n">
         <v>750000</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M5" t="n">
         <v>748911.83</v>
@@ -1091,11 +1076,6 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Repair of classroom to be used/Converted to School Clinic</t>
@@ -1103,11 +1083,6 @@
       </c>
       <c r="K6" t="n">
         <v>750563.88</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M6" t="n">
         <v>723815.73</v>
@@ -1213,11 +1188,6 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1225,11 +1195,6 @@
       </c>
       <c r="K7" t="n">
         <v>5000000</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M7" t="n">
         <v>4949991.33</v>
@@ -1325,11 +1290,6 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1337,11 +1297,6 @@
       </c>
       <c r="K8" t="n">
         <v>5000000</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M8" t="n">
         <v>3761368.61</v>
@@ -1432,11 +1387,6 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>Repair of School Clinic</t>
@@ -1444,11 +1394,6 @@
       </c>
       <c r="K9" t="n">
         <v>947962.5699999999</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M9" t="n">
         <v>943482.23</v>
@@ -1554,11 +1499,6 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>Repair of Classroom to be Used/Converted to School Clinic (7.00m x 9.00m)</t>
@@ -1566,11 +1506,6 @@
       </c>
       <c r="K10" t="n">
         <v>998176.98</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M10" t="n">
         <v>716620.8</v>
@@ -1676,11 +1611,6 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>Repair of Classroom to be Used/Converted to School Clinic (7.00m x 9.00m)</t>
@@ -1688,11 +1618,6 @@
       </c>
       <c r="K11" t="n">
         <v>998176.98</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M11" t="n">
         <v>716620.8</v>
@@ -1798,11 +1723,6 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>Repair of Classroom to be Used/Converted to School Clinic (7.00m x 9.00m)</t>
@@ -1810,11 +1730,6 @@
       </c>
       <c r="K12" t="n">
         <v>998176.98</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M12" t="n">
         <v>716620.8</v>
@@ -1920,11 +1835,6 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>Repair of Classroom to be Used/Converted to School Clinic (7.00m x 9.00m)</t>
@@ -1932,11 +1842,6 @@
       </c>
       <c r="K13" t="n">
         <v>998176.98</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M13" t="n">
         <v>716620.8</v>
@@ -2042,11 +1947,6 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>Rehabilitation of clinic</t>
@@ -2054,11 +1954,6 @@
       </c>
       <c r="K14" t="n">
         <v>1290256</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M14" t="n">
         <v>997541.22</v>
@@ -2159,11 +2054,6 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>Rehabilitation of clinic</t>
@@ -2171,11 +2061,6 @@
       </c>
       <c r="K15" t="n">
         <v>1290256</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M15" t="n">
         <v>997541.22</v>
@@ -2276,11 +2161,6 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>Repair of School Clinic 
@@ -2289,11 +2169,6 @@
       </c>
       <c r="K16" t="n">
         <v>1300000</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M16" t="n">
         <v>1269999.79</v>
@@ -2399,11 +2274,6 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary (Option 3A - One-Sided, with Roofing, with Counter, with Tile Finish)</t>
@@ -2411,11 +2281,6 @@
       </c>
       <c r="K17" t="n">
         <v>350000</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M17" t="n">
         <v>347254.52</v>
@@ -2486,7 +2351,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AF2:AF17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/NCR/NCR_HEALTH.xlsx
+++ b/Filtered_By_Region/NCR/NCR_HEALTH.xlsx
@@ -56,11 +56,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF17"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,1793 +567,1824 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Reverted</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Not yet started</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Under Procurement</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites On Going</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Completed</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>City of San Juan</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3" t="n">
         <v>136751</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Pinaglabanan ES</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>CITY OF SAN JUAN</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="inlineStr"/>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities (with Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="3" t="n">
         <v>943148.5</v>
       </c>
-      <c r="M2" t="n">
+      <c r="L2" s="3" t="inlineStr"/>
+      <c r="M2" s="3" t="n">
         <v>933992.7</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="O2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>February 28, 2025</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>February 7, 2025</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>WINS2024-NCR-SANJUAN-002</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>INFRA2024-004</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>July 8, 2025</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>July 18, 2024</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>November 11, 2024</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" s="3" t="inlineStr">
         <is>
           <t>December 20, 2024</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="3" t="inlineStr">
         <is>
           <t>Sherf Builders Corp</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="Z2" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
+      <c r="AA2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>City of San Juan</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="3" t="n">
         <v>136746</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>San Juan ES</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>CITY OF SAN JUAN</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities (with Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="3" t="n">
         <v>1098292.86</v>
       </c>
-      <c r="M3" t="n">
+      <c r="L3" s="3" t="inlineStr"/>
+      <c r="M3" s="3" t="n">
         <v>884385.37</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="O3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="inlineStr">
         <is>
           <t>October 14, 2024</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" s="3" t="inlineStr">
         <is>
           <t>September 26, 2024</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>WINS2024-NCR-SANJUAN-001</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>INFRA-2024-001</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="3" t="inlineStr">
         <is>
           <t>December 8, 2023</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="3" t="inlineStr">
         <is>
           <t>December 15, 2023</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="3" t="inlineStr">
         <is>
           <t>January 4, 2024</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W3" s="3" t="inlineStr">
         <is>
           <t>January 9, 2024</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3" s="3" t="inlineStr">
         <is>
           <t>August 14, 2024</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" s="3" t="inlineStr">
         <is>
           <t>J.G Mendoza Builders</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="Z3" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
+      <c r="AA3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>City of San Juan</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="3" t="n">
         <v>305423</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>San Juan National High School</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>CITY OF SAN JUAN</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities (with Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="3" t="n">
         <v>558579.85</v>
       </c>
-      <c r="M4" t="n">
+      <c r="L4" s="3" t="inlineStr"/>
+      <c r="M4" s="3" t="n">
         <v>553107.2</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="3" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="O4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
         <is>
           <t>February 17, 2025</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" s="3" t="inlineStr">
         <is>
           <t>February 7, 2025</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="3" t="inlineStr">
         <is>
           <t>WINS2024-NCR-SANJUAN-002</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="3" t="inlineStr">
         <is>
           <t>INFRA2024-004</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="3" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="3" t="inlineStr">
         <is>
           <t>July 8, 2025</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="3" t="inlineStr">
         <is>
           <t>July 18, 2024</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" s="3" t="inlineStr">
         <is>
           <t>November 11, 2024</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" s="3" t="inlineStr">
         <is>
           <t>December 20, 2024</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="3" t="inlineStr">
         <is>
           <t>Sherf Builders Corp</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Z4" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
+      <c r="AA4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Makati City</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="3" t="n">
         <v>136703</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>Hen. Pio del Pilar ES Main</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>CITY OF MAKATI</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>Repair of School Clinic</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="3" t="n">
         <v>750000</v>
       </c>
-      <c r="M5" t="n">
+      <c r="L5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="n">
         <v>748911.83</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>July 18, 2025</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="Q5" s="3" t="inlineStr"/>
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>PB-SDO-MKT-2024-008</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="3" t="inlineStr">
         <is>
           <t>SDO-MKT-25-013</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="3" t="inlineStr">
         <is>
           <t>November 29, 2024</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" s="3" t="inlineStr">
         <is>
           <t>December 6, 2024</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="3" t="inlineStr">
         <is>
           <t>December 18, 2024</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W5" s="3" t="inlineStr">
         <is>
           <t>December 23, 2024</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" s="3" t="inlineStr">
         <is>
           <t>May 19, 2025</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="3" t="inlineStr">
         <is>
           <t>J.R.C.F Construction</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Z5" s="3" t="inlineStr">
         <is>
           <t>On-going</t>
         </is>
       </c>
+      <c r="AA5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Mandaluyong City</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="3" t="n">
         <v>500332</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>Highway Hills Integrated School</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>CITY OF MANDALUYONG</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>Repair of classroom to be used/Converted to School Clinic</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="3" t="n">
         <v>750563.88</v>
       </c>
-      <c r="M6" t="n">
+      <c r="L6" s="3" t="inlineStr"/>
+      <c r="M6" s="3" t="n">
         <v>723815.73</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>March 20, 2025</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>March 20, 2025</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>MANDALUYONG-003</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>OSEC-NCR-221-7805</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="3" t="inlineStr">
         <is>
           <t>October 24, 2024</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="3" t="inlineStr">
         <is>
           <t>November 5, 2024</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="3" t="inlineStr">
         <is>
           <t>November 12, 2024</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="W6" s="3" t="inlineStr">
         <is>
           <t>November 13, 2024</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6" s="3" t="inlineStr">
         <is>
           <t>January 6, 2025</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" s="3" t="inlineStr">
         <is>
           <t>MAAV CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="Z6" s="3" t="inlineStr">
         <is>
           <t>for mobilization; with subaro downloaded already; Batch 15</t>
         </is>
       </c>
+      <c r="AA6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Manila</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="3" t="n">
         <v>136436</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>A. V. Hernandez Elementary School</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>TONDO</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="inlineStr"/>
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="3" t="n">
         <v>5000000</v>
       </c>
-      <c r="M7" t="n">
+      <c r="L7" s="3" t="inlineStr"/>
+      <c r="M7" s="3" t="n">
         <v>4949991.33</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="O7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
         <is>
           <t>November 24, 2024</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" s="3" t="inlineStr">
         <is>
           <t>May 6, 2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="R7" s="3" t="inlineStr"/>
+      <c r="S7" s="3" t="inlineStr"/>
+      <c r="T7" s="3" t="inlineStr">
         <is>
           <t>May 8, 2024</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" s="3" t="inlineStr">
         <is>
           <t>May 18, 2024</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V7" s="3" t="inlineStr">
         <is>
           <t>May 28, 2024</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="W7" s="3" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X7" s="3" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y7" s="3" t="inlineStr">
         <is>
           <t>LARZEN-DUTHCER CONSTRACTOR CORPORATION</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="Z7" s="3" t="inlineStr">
         <is>
           <t>Delayed due to double handling and typhoons</t>
         </is>
       </c>
+      <c r="AA7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Manila</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="3" t="n">
         <v>136428</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>Gregoria de Jesus ES</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>TONDO</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="inlineStr"/>
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="3" t="n">
         <v>5000000</v>
       </c>
-      <c r="M8" t="n">
+      <c r="L8" s="3" t="inlineStr"/>
+      <c r="M8" s="3" t="n">
         <v>3761368.61</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="O8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3" t="inlineStr">
         <is>
           <t>November 24, 2024</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" s="3" t="inlineStr">
         <is>
           <t>December 2, 2024</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="R8" s="3" t="inlineStr"/>
+      <c r="S8" s="3" t="inlineStr"/>
+      <c r="T8" s="3" t="inlineStr">
         <is>
           <t>May 8, 2024</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" s="3" t="inlineStr">
         <is>
           <t>May 18, 2024</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V8" s="3" t="inlineStr">
         <is>
           <t>May 28, 2024</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="W8" s="3" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8" s="3" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y8" s="3" t="inlineStr">
         <is>
           <t>OPEN BUILDERS INCORPORATED</t>
         </is>
       </c>
+      <c r="Z8" s="3" t="inlineStr"/>
+      <c r="AA8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Muntinlupa City</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="3" t="n">
         <v>136903</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>Muntinlupa ES</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>CITY OF MUNTINLUPA</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="inlineStr"/>
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>Repair of School Clinic</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="3" t="n">
         <v>947962.5699999999</v>
       </c>
-      <c r="M9" t="n">
+      <c r="L9" s="3" t="inlineStr"/>
+      <c r="M9" s="3" t="n">
         <v>943482.23</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="3" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="O9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3" t="inlineStr">
         <is>
           <t>December 3, 2024</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" s="3" t="inlineStr">
         <is>
           <t>December 3, 2024</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R9" s="3" t="inlineStr">
         <is>
           <t>2024-006</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="3" t="inlineStr">
         <is>
           <t>2024-006</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T9" s="3" t="inlineStr">
         <is>
           <t>June 21, 2024</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U9" s="3" t="inlineStr">
         <is>
           <t>June 24, 2024</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V9" s="3" t="inlineStr">
         <is>
           <t>June 26, 2024</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="W9" s="3" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="X9" s="3" t="inlineStr">
         <is>
           <t>September 4, 2024</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y9" s="3" t="inlineStr">
         <is>
           <t>Ayana Construction</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="Z9" s="3" t="inlineStr">
         <is>
           <t>Received sub-aro August 12, 2024</t>
         </is>
       </c>
+      <c r="AA9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Paranaque City</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="3" t="n">
         <v>136769</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>Baclaran Elementary School Unit II</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>CITY OF PARAÑAQUE</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="inlineStr"/>
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>Repair of Classroom to be Used/Converted to School Clinic (7.00m x 9.00m)</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="3" t="n">
         <v>998176.98</v>
       </c>
-      <c r="M10" t="n">
+      <c r="L10" s="3" t="inlineStr"/>
+      <c r="M10" s="3" t="n">
         <v>716620.8</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="3" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="O10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3" t="inlineStr">
         <is>
           <t>August 18, 2024</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" s="3" t="inlineStr">
         <is>
           <t>August 16, 2024</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R10" s="3" t="inlineStr">
         <is>
           <t>PB-2024-Infra01a</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="3" t="inlineStr">
         <is>
           <t>PB-2024-Infra01a</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T10" s="3" t="inlineStr">
         <is>
           <t>October 30, 2023</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U10" s="3" t="inlineStr">
         <is>
           <t>November 6, 2023</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V10" s="3" t="inlineStr">
         <is>
           <t>November 17, 2023</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="W10" s="3" t="inlineStr">
         <is>
           <t>March 21, 2024</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="X10" s="3" t="inlineStr">
         <is>
           <t>June 19, 2024</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y10" s="3" t="inlineStr">
         <is>
           <t>RGDG Construction</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="Z10" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
+      <c r="AA10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Paranaque City</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="3" t="n">
         <v>136765</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>Sto. Niño Elementary School</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>CITY OF PARAÑAQUE</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="inlineStr"/>
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>Repair of Classroom to be Used/Converted to School Clinic (7.00m x 9.00m)</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="3" t="n">
         <v>998176.98</v>
       </c>
-      <c r="M11" t="n">
+      <c r="L11" s="3" t="inlineStr"/>
+      <c r="M11" s="3" t="n">
         <v>716620.8</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="3" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="inlineStr">
+      <c r="O11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="inlineStr">
         <is>
           <t>August 18, 2024</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" s="3" t="inlineStr">
         <is>
           <t>August 16, 2024</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R11" s="3" t="inlineStr">
         <is>
           <t>PB-2024-Infra01d</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="3" t="inlineStr">
         <is>
           <t>PB-2024-Infra01d</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T11" s="3" t="inlineStr">
         <is>
           <t>October 30, 2023</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U11" s="3" t="inlineStr">
         <is>
           <t>November 6, 2023</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V11" s="3" t="inlineStr">
         <is>
           <t>November 17, 2023</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="W11" s="3" t="inlineStr">
         <is>
           <t>March 21, 2024</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X11" s="3" t="inlineStr">
         <is>
           <t>June 19, 2024</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y11" s="3" t="inlineStr">
         <is>
           <t>RGDG Construction</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="Z11" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
+      <c r="AA11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>Paranaque City</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="3" t="n">
         <v>136761</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>Col. E. De Leon Elementary School</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>CITY OF PARAÑAQUE</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="inlineStr"/>
+      <c r="J12" s="3" t="inlineStr">
         <is>
           <t>Repair of Classroom to be Used/Converted to School Clinic (7.00m x 9.00m)</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="3" t="n">
         <v>998176.98</v>
       </c>
-      <c r="M12" t="n">
+      <c r="L12" s="3" t="inlineStr"/>
+      <c r="M12" s="3" t="n">
         <v>716620.8</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" s="3" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="O12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3" t="inlineStr">
         <is>
           <t>August 18, 2024</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" s="3" t="inlineStr">
         <is>
           <t>August 16, 2024</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R12" s="3" t="inlineStr">
         <is>
           <t>PB-2024-Infra01b</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" s="3" t="inlineStr">
         <is>
           <t>PB-2024-Infra01b</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T12" s="3" t="inlineStr">
         <is>
           <t>October 30, 2023</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="U12" s="3" t="inlineStr">
         <is>
           <t>November 6, 2023</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="V12" s="3" t="inlineStr">
         <is>
           <t>November 17, 2023</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="W12" s="3" t="inlineStr">
         <is>
           <t>March 21, 2024</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="X12" s="3" t="inlineStr">
         <is>
           <t>June 19, 2024</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Y12" s="3" t="inlineStr">
         <is>
           <t>RGDG Construction</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="Z12" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
+      <c r="AA12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>Paranaque City</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="3" t="n">
         <v>137129</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>Don Bosco Elementary School</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>CITY OF PARAÑAQUE</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="inlineStr"/>
+      <c r="J13" s="3" t="inlineStr">
         <is>
           <t>Repair of Classroom to be Used/Converted to School Clinic (7.00m x 9.00m)</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="3" t="n">
         <v>998176.98</v>
       </c>
-      <c r="M13" t="n">
+      <c r="L13" s="3" t="inlineStr"/>
+      <c r="M13" s="3" t="n">
         <v>716620.8</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="3" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="O13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3" t="inlineStr">
         <is>
           <t>August 18, 2024</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" s="3" t="inlineStr">
         <is>
           <t>August 16, 2024</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R13" s="3" t="inlineStr">
         <is>
           <t>PB-2024-Infra01c</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S13" s="3" t="inlineStr">
         <is>
           <t>PB-2024-Infra01c</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T13" s="3" t="inlineStr">
         <is>
           <t>October 30, 2023</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U13" s="3" t="inlineStr">
         <is>
           <t>November 6, 2023</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="V13" s="3" t="inlineStr">
         <is>
           <t>November 17, 2023</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="W13" s="3" t="inlineStr">
         <is>
           <t>March 21, 2024</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="X13" s="3" t="inlineStr">
         <is>
           <t>June 19, 2024</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Y13" s="3" t="inlineStr">
         <is>
           <t>RGDG Construction</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="Z13" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
+      <c r="AA13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Pasig City</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="3" t="n">
         <v>136717</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>Ilugin Elementary School</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>CITY OF PASIG</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="inlineStr"/>
+      <c r="J14" s="3" t="inlineStr">
         <is>
           <t>Rehabilitation of clinic</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="3" t="n">
         <v>1290256</v>
       </c>
-      <c r="M14" t="n">
+      <c r="L14" s="3" t="inlineStr"/>
+      <c r="M14" s="3" t="n">
         <v>997541.22</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="3" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="inlineStr">
+      <c r="O14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3" t="inlineStr">
         <is>
           <t>April 10, 2025</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" s="3" t="inlineStr">
         <is>
           <t>April 8, 2024</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R14" s="3" t="inlineStr">
         <is>
           <t>PB-2024-Infra01a</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S14" s="3" t="inlineStr">
         <is>
           <t>PB-2024-Infra01a</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T14" s="3" t="inlineStr">
         <is>
           <t>June 27, 2024</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U14" s="3" t="inlineStr">
         <is>
           <t>July 4, 2024</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="V14" s="3" t="inlineStr">
         <is>
           <t>July 29, 2024</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="W14" s="3" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="X14" s="3" t="inlineStr">
         <is>
           <t>December 11. 2024</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Y14" s="3" t="inlineStr">
         <is>
           <t>Emica Builders and Supply</t>
         </is>
       </c>
+      <c r="Z14" s="3" t="inlineStr"/>
+      <c r="AA14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>Pasig City</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="3" t="n">
         <v>136719</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>Liberato Damian Elementary School</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>CITY OF PASIG</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="inlineStr"/>
+      <c r="J15" s="3" t="inlineStr">
         <is>
           <t>Rehabilitation of clinic</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="3" t="n">
         <v>1290256</v>
       </c>
-      <c r="M15" t="n">
+      <c r="L15" s="3" t="inlineStr"/>
+      <c r="M15" s="3" t="n">
         <v>997541.22</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N15" s="3" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="inlineStr">
+      <c r="O15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3" t="inlineStr">
         <is>
           <t>April 10, 2025</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" s="3" t="inlineStr">
         <is>
           <t>April 8, 2024</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R15" s="3" t="inlineStr">
         <is>
           <t>PB-2024-Infra01b</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S15" s="3" t="inlineStr">
         <is>
           <t>PB-2024-Infra01b</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T15" s="3" t="inlineStr">
         <is>
           <t>June 27, 2024</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="U15" s="3" t="inlineStr">
         <is>
           <t>July 4, 2024</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="V15" s="3" t="inlineStr">
         <is>
           <t>July 29, 2024</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="W15" s="3" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="X15" s="3" t="inlineStr">
         <is>
           <t>December 11. 2024</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Y15" s="3" t="inlineStr">
         <is>
           <t>Emica Builders and Supply</t>
         </is>
       </c>
+      <c r="Z15" s="3" t="inlineStr"/>
+      <c r="AA15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>Taguig City and Pateros</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="3" t="n">
         <v>136883</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>Cipriano P. Sta. Teresa Elementary School</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>TAGUIG CITY</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="inlineStr"/>
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>Repair of School Clinic 
 (9.8 x 11.50m)</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="3" t="n">
         <v>1300000</v>
       </c>
-      <c r="M16" t="n">
+      <c r="L16" s="3" t="inlineStr"/>
+      <c r="M16" s="3" t="n">
         <v>1269999.79</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N16" s="3" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="inlineStr">
+      <c r="O16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3" t="inlineStr">
         <is>
           <t>March 14, 2025</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" s="3" t="inlineStr">
         <is>
           <t>April 22, 2025</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R16" s="3" t="inlineStr">
         <is>
           <t>DTP-CY2024-infra-001</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S16" s="3" t="inlineStr">
         <is>
           <t>DTP-CY2024-infra-001</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T16" s="3" t="inlineStr">
         <is>
           <t>July 31, 2024</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="U16" s="3" t="inlineStr">
         <is>
           <t>August 7, 2024</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="V16" s="3" t="inlineStr">
         <is>
           <t>August 19, 2024</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="W16" s="3" t="inlineStr">
         <is>
           <t>August 27, 2024</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="X16" s="3" t="inlineStr">
         <is>
           <t>January 3, 2025</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Y16" s="3" t="inlineStr">
         <is>
           <t>Jepa Construction and Development Corp.</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="Z16" s="3" t="inlineStr">
         <is>
           <t>with subaro downloaded already batch 15</t>
         </is>
       </c>
+      <c r="AA16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>Taguig City and Pateros</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="3" t="n">
         <v>136881</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>Bagong Tanyag Elementary School - Annex A</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>TAGUIG CITY</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" s="3" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="inlineStr"/>
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary (Option 3A - One-Sided, with Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="3" t="n">
         <v>350000</v>
       </c>
-      <c r="M17" t="n">
+      <c r="L17" s="3" t="inlineStr"/>
+      <c r="M17" s="3" t="n">
         <v>347254.52</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" s="3" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="inlineStr">
+      <c r="O17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3" t="inlineStr">
         <is>
           <t>November 27, 2024</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" s="3" t="inlineStr">
         <is>
           <t>November 11, 2024</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R17" s="3" t="inlineStr">
         <is>
           <t>DTP-CY2024-infra-054</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S17" s="3" t="inlineStr">
         <is>
           <t>BAC-SVP-2024-40</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T17" s="3" t="inlineStr">
         <is>
           <t>August 1, 2024</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U17" s="3" t="inlineStr">
         <is>
           <t>August 5, 2024</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="V17" s="3" t="inlineStr">
         <is>
           <t>August 5, 2024</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="W17" s="3" t="inlineStr">
         <is>
           <t>August 8, 2024</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="X17" s="3" t="inlineStr">
         <is>
           <t>October 14, 2024</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Y17" s="3" t="inlineStr">
         <is>
           <t>Sherf Builders Corporation</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="Z17" s="3" t="inlineStr">
         <is>
           <t>with subaro downloaded already batch 13</t>
         </is>
       </c>
+      <c r="AA17" s="3" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AF2:AF17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/NCR/NCR_HEALTH.xlsx
+++ b/Filtered_By_Region/NCR/NCR_HEALTH.xlsx
@@ -30,12 +30,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -56,13 +62,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,1956 +443,1986 @@
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="43" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="131" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="26" customWidth="1" min="18" max="18"/>
+    <col width="22" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="19" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="41" customWidth="1" min="25" max="25"/>
+    <col width="60" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="2" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AA1" s="3" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>City of San Juan</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>136751</v>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Pinaglabanan ES</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>CITY OF SAN JUAN</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="inlineStr"/>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="H2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="inlineStr"/>
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities (with Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="4" t="n">
         <v>943148.5</v>
       </c>
-      <c r="L2" s="3" t="inlineStr"/>
-      <c r="M2" s="3" t="n">
+      <c r="L2" s="4" t="inlineStr"/>
+      <c r="M2" s="4" t="n">
         <v>933992.7</v>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="O2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>February 28, 2025</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>February 7, 2025</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>WINS2024-NCR-SANJUAN-002</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>INFRA2024-004</t>
         </is>
       </c>
-      <c r="T2" s="3" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>July 8, 2025</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>July 18, 2024</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>November 11, 2024</t>
         </is>
       </c>
-      <c r="X2" s="3" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>December 20, 2024</t>
         </is>
       </c>
-      <c r="Y2" s="3" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>Sherf Builders Corp</t>
         </is>
       </c>
-      <c r="Z2" s="3" t="inlineStr">
+      <c r="Z2" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA2" s="3" t="n"/>
+      <c r="AA2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>City of San Juan</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>136746</v>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>San Juan ES</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>CITY OF SAN JUAN</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="inlineStr"/>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="inlineStr"/>
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities (with Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="4" t="n">
         <v>1098292.86</v>
       </c>
-      <c r="L3" s="3" t="inlineStr"/>
-      <c r="M3" s="3" t="n">
+      <c r="L3" s="4" t="inlineStr"/>
+      <c r="M3" s="4" t="n">
         <v>884385.37</v>
       </c>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3" t="inlineStr">
+      <c r="O3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>October 14, 2024</t>
         </is>
       </c>
-      <c r="Q3" s="3" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
         <is>
           <t>September 26, 2024</t>
         </is>
       </c>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>WINS2024-NCR-SANJUAN-001</t>
         </is>
       </c>
-      <c r="S3" s="3" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>INFRA-2024-001</t>
         </is>
       </c>
-      <c r="T3" s="3" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>December 8, 2023</t>
         </is>
       </c>
-      <c r="U3" s="3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>December 15, 2023</t>
         </is>
       </c>
-      <c r="V3" s="3" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>January 4, 2024</t>
         </is>
       </c>
-      <c r="W3" s="3" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
         <is>
           <t>January 9, 2024</t>
         </is>
       </c>
-      <c r="X3" s="3" t="inlineStr">
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>August 14, 2024</t>
         </is>
       </c>
-      <c r="Y3" s="3" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>J.G Mendoza Builders</t>
         </is>
       </c>
-      <c r="Z3" s="3" t="inlineStr">
+      <c r="Z3" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA3" s="3" t="n"/>
+      <c r="AA3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>City of San Juan</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>305423</v>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>San Juan National High School</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>CITY OF SAN JUAN</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="inlineStr"/>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="H4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="inlineStr"/>
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities (with Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="4" t="n">
         <v>558579.85</v>
       </c>
-      <c r="L4" s="3" t="inlineStr"/>
-      <c r="M4" s="3" t="n">
+      <c r="L4" s="4" t="inlineStr"/>
+      <c r="M4" s="4" t="n">
         <v>553107.2</v>
       </c>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3" t="inlineStr">
+      <c r="O4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>February 17, 2025</t>
         </is>
       </c>
-      <c r="Q4" s="3" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr">
         <is>
           <t>February 7, 2025</t>
         </is>
       </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>WINS2024-NCR-SANJUAN-002</t>
         </is>
       </c>
-      <c r="S4" s="3" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>INFRA2024-004</t>
         </is>
       </c>
-      <c r="T4" s="3" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="U4" s="3" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>July 8, 2025</t>
         </is>
       </c>
-      <c r="V4" s="3" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>July 18, 2024</t>
         </is>
       </c>
-      <c r="W4" s="3" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
         <is>
           <t>November 11, 2024</t>
         </is>
       </c>
-      <c r="X4" s="3" t="inlineStr">
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>December 20, 2024</t>
         </is>
       </c>
-      <c r="Y4" s="3" t="inlineStr">
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>Sherf Builders Corp</t>
         </is>
       </c>
-      <c r="Z4" s="3" t="inlineStr">
+      <c r="Z4" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA4" s="3" t="n"/>
+      <c r="AA4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Makati City</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>136703</v>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Hen. Pio del Pilar ES Main</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>CITY OF MAKATI</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="inlineStr"/>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="H5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="inlineStr"/>
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>Repair of School Clinic</t>
         </is>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="4" t="n">
         <v>750000</v>
       </c>
-      <c r="L5" s="3" t="inlineStr"/>
-      <c r="M5" s="3" t="n">
+      <c r="L5" s="4" t="inlineStr"/>
+      <c r="M5" s="4" t="n">
         <v>748911.83</v>
       </c>
-      <c r="N5" s="3" t="inlineStr">
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="P5" s="3" t="inlineStr">
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>July 18, 2025</t>
         </is>
       </c>
-      <c r="Q5" s="3" t="inlineStr"/>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr"/>
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>PB-SDO-MKT-2024-008</t>
         </is>
       </c>
-      <c r="S5" s="3" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>SDO-MKT-25-013</t>
         </is>
       </c>
-      <c r="T5" s="3" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>November 29, 2024</t>
         </is>
       </c>
-      <c r="U5" s="3" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>December 6, 2024</t>
         </is>
       </c>
-      <c r="V5" s="3" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>December 18, 2024</t>
         </is>
       </c>
-      <c r="W5" s="3" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
         <is>
           <t>December 23, 2024</t>
         </is>
       </c>
-      <c r="X5" s="3" t="inlineStr">
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>May 19, 2025</t>
         </is>
       </c>
-      <c r="Y5" s="3" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>J.R.C.F Construction</t>
         </is>
       </c>
-      <c r="Z5" s="3" t="inlineStr">
+      <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA5" s="3" t="n"/>
+      <c r="AA5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Mandaluyong City</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>500332</v>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>Highway Hills Integrated School</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>CITY OF MANDALUYONG</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="inlineStr"/>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="inlineStr"/>
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>Repair of classroom to be used/Converted to School Clinic</t>
         </is>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="4" t="n">
         <v>750563.88</v>
       </c>
-      <c r="L6" s="3" t="inlineStr"/>
-      <c r="M6" s="3" t="n">
+      <c r="L6" s="4" t="inlineStr"/>
+      <c r="M6" s="4" t="n">
         <v>723815.73</v>
       </c>
-      <c r="N6" s="3" t="inlineStr">
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="O6" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="P6" s="3" t="inlineStr">
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>March 20, 2025</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
+      <c r="Q6" s="4" t="inlineStr">
         <is>
           <t>March 20, 2025</t>
         </is>
       </c>
-      <c r="R6" s="3" t="inlineStr">
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>MANDALUYONG-003</t>
         </is>
       </c>
-      <c r="S6" s="3" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>OSEC-NCR-221-7805</t>
         </is>
       </c>
-      <c r="T6" s="3" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>October 24, 2024</t>
         </is>
       </c>
-      <c r="U6" s="3" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>November 5, 2024</t>
         </is>
       </c>
-      <c r="V6" s="3" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>November 12, 2024</t>
         </is>
       </c>
-      <c r="W6" s="3" t="inlineStr">
+      <c r="W6" s="4" t="inlineStr">
         <is>
           <t>November 13, 2024</t>
         </is>
       </c>
-      <c r="X6" s="3" t="inlineStr">
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>January 6, 2025</t>
         </is>
       </c>
-      <c r="Y6" s="3" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>MAAV CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Z6" s="3" t="inlineStr">
+      <c r="Z6" s="4" t="inlineStr">
         <is>
           <t>for mobilization; with subaro downloaded already; Batch 15</t>
         </is>
       </c>
-      <c r="AA6" s="3" t="n"/>
+      <c r="AA6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Manila</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>136436</v>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>A. V. Hernandez Elementary School</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>TONDO</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="inlineStr"/>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="H7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="inlineStr"/>
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="4" t="n">
         <v>5000000</v>
       </c>
-      <c r="L7" s="3" t="inlineStr"/>
-      <c r="M7" s="3" t="n">
+      <c r="L7" s="4" t="inlineStr"/>
+      <c r="M7" s="4" t="n">
         <v>4949991.33</v>
       </c>
-      <c r="N7" s="3" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3" t="inlineStr">
+      <c r="O7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>November 24, 2024</t>
         </is>
       </c>
-      <c r="Q7" s="3" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>May 6, 2025</t>
         </is>
       </c>
-      <c r="R7" s="3" t="inlineStr"/>
-      <c r="S7" s="3" t="inlineStr"/>
-      <c r="T7" s="3" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr"/>
+      <c r="S7" s="4" t="inlineStr"/>
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>May 8, 2024</t>
         </is>
       </c>
-      <c r="U7" s="3" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>May 18, 2024</t>
         </is>
       </c>
-      <c r="V7" s="3" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>May 28, 2024</t>
         </is>
       </c>
-      <c r="W7" s="3" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="X7" s="3" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="Y7" s="3" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>LARZEN-DUTHCER CONSTRACTOR CORPORATION</t>
         </is>
       </c>
-      <c r="Z7" s="3" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Delayed due to double handling and typhoons</t>
         </is>
       </c>
-      <c r="AA7" s="3" t="n"/>
+      <c r="AA7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Manila</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>136428</v>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>Gregoria de Jesus ES</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>TONDO</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="inlineStr"/>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="H8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="inlineStr"/>
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="4" t="n">
         <v>5000000</v>
       </c>
-      <c r="L8" s="3" t="inlineStr"/>
-      <c r="M8" s="3" t="n">
+      <c r="L8" s="4" t="inlineStr"/>
+      <c r="M8" s="4" t="n">
         <v>3761368.61</v>
       </c>
-      <c r="N8" s="3" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3" t="inlineStr">
+      <c r="O8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4" t="inlineStr">
         <is>
           <t>November 24, 2024</t>
         </is>
       </c>
-      <c r="Q8" s="3" t="inlineStr">
+      <c r="Q8" s="4" t="inlineStr">
         <is>
           <t>December 2, 2024</t>
         </is>
       </c>
-      <c r="R8" s="3" t="inlineStr"/>
-      <c r="S8" s="3" t="inlineStr"/>
-      <c r="T8" s="3" t="inlineStr">
+      <c r="R8" s="4" t="inlineStr"/>
+      <c r="S8" s="4" t="inlineStr"/>
+      <c r="T8" s="4" t="inlineStr">
         <is>
           <t>May 8, 2024</t>
         </is>
       </c>
-      <c r="U8" s="3" t="inlineStr">
+      <c r="U8" s="4" t="inlineStr">
         <is>
           <t>May 18, 2024</t>
         </is>
       </c>
-      <c r="V8" s="3" t="inlineStr">
+      <c r="V8" s="4" t="inlineStr">
         <is>
           <t>May 28, 2024</t>
         </is>
       </c>
-      <c r="W8" s="3" t="inlineStr">
+      <c r="W8" s="4" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="X8" s="3" t="inlineStr">
+      <c r="X8" s="4" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="Y8" s="3" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>OPEN BUILDERS INCORPORATED</t>
         </is>
       </c>
-      <c r="Z8" s="3" t="inlineStr"/>
-      <c r="AA8" s="3" t="n"/>
+      <c r="Z8" s="4" t="inlineStr"/>
+      <c r="AA8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Muntinlupa City</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>136903</v>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>Muntinlupa ES</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>CITY OF MUNTINLUPA</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="inlineStr"/>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="H9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="inlineStr"/>
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>Repair of School Clinic</t>
         </is>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="K9" s="4" t="n">
         <v>947962.5699999999</v>
       </c>
-      <c r="L9" s="3" t="inlineStr"/>
-      <c r="M9" s="3" t="n">
+      <c r="L9" s="4" t="inlineStr"/>
+      <c r="M9" s="4" t="n">
         <v>943482.23</v>
       </c>
-      <c r="N9" s="3" t="inlineStr">
+      <c r="N9" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="3" t="inlineStr">
+      <c r="O9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4" t="inlineStr">
         <is>
           <t>December 3, 2024</t>
         </is>
       </c>
-      <c r="Q9" s="3" t="inlineStr">
+      <c r="Q9" s="4" t="inlineStr">
         <is>
           <t>December 3, 2024</t>
         </is>
       </c>
-      <c r="R9" s="3" t="inlineStr">
+      <c r="R9" s="4" t="inlineStr">
         <is>
           <t>2024-006</t>
         </is>
       </c>
-      <c r="S9" s="3" t="inlineStr">
+      <c r="S9" s="4" t="inlineStr">
         <is>
           <t>2024-006</t>
         </is>
       </c>
-      <c r="T9" s="3" t="inlineStr">
+      <c r="T9" s="4" t="inlineStr">
         <is>
           <t>June 21, 2024</t>
         </is>
       </c>
-      <c r="U9" s="3" t="inlineStr">
+      <c r="U9" s="4" t="inlineStr">
         <is>
           <t>June 24, 2024</t>
         </is>
       </c>
-      <c r="V9" s="3" t="inlineStr">
+      <c r="V9" s="4" t="inlineStr">
         <is>
           <t>June 26, 2024</t>
         </is>
       </c>
-      <c r="W9" s="3" t="inlineStr">
+      <c r="W9" s="4" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="X9" s="3" t="inlineStr">
+      <c r="X9" s="4" t="inlineStr">
         <is>
           <t>September 4, 2024</t>
         </is>
       </c>
-      <c r="Y9" s="3" t="inlineStr">
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>Ayana Construction</t>
         </is>
       </c>
-      <c r="Z9" s="3" t="inlineStr">
+      <c r="Z9" s="4" t="inlineStr">
         <is>
           <t>Received sub-aro August 12, 2024</t>
         </is>
       </c>
-      <c r="AA9" s="3" t="n"/>
+      <c r="AA9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Paranaque City</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>136769</v>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>Baclaran Elementary School Unit II</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>CITY OF PARAÑAQUE</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="inlineStr"/>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="H10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="inlineStr"/>
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>Repair of Classroom to be Used/Converted to School Clinic (7.00m x 9.00m)</t>
         </is>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="4" t="n">
         <v>998176.98</v>
       </c>
-      <c r="L10" s="3" t="inlineStr"/>
-      <c r="M10" s="3" t="n">
+      <c r="L10" s="4" t="inlineStr"/>
+      <c r="M10" s="4" t="n">
         <v>716620.8</v>
       </c>
-      <c r="N10" s="3" t="inlineStr">
+      <c r="N10" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3" t="inlineStr">
+      <c r="O10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4" t="inlineStr">
         <is>
           <t>August 18, 2024</t>
         </is>
       </c>
-      <c r="Q10" s="3" t="inlineStr">
+      <c r="Q10" s="4" t="inlineStr">
         <is>
           <t>August 16, 2024</t>
         </is>
       </c>
-      <c r="R10" s="3" t="inlineStr">
+      <c r="R10" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01a</t>
         </is>
       </c>
-      <c r="S10" s="3" t="inlineStr">
+      <c r="S10" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01a</t>
         </is>
       </c>
-      <c r="T10" s="3" t="inlineStr">
+      <c r="T10" s="4" t="inlineStr">
         <is>
           <t>October 30, 2023</t>
         </is>
       </c>
-      <c r="U10" s="3" t="inlineStr">
+      <c r="U10" s="4" t="inlineStr">
         <is>
           <t>November 6, 2023</t>
         </is>
       </c>
-      <c r="V10" s="3" t="inlineStr">
+      <c r="V10" s="4" t="inlineStr">
         <is>
           <t>November 17, 2023</t>
         </is>
       </c>
-      <c r="W10" s="3" t="inlineStr">
+      <c r="W10" s="4" t="inlineStr">
         <is>
           <t>March 21, 2024</t>
         </is>
       </c>
-      <c r="X10" s="3" t="inlineStr">
+      <c r="X10" s="4" t="inlineStr">
         <is>
           <t>June 19, 2024</t>
         </is>
       </c>
-      <c r="Y10" s="3" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>RGDG Construction</t>
         </is>
       </c>
-      <c r="Z10" s="3" t="inlineStr">
+      <c r="Z10" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA10" s="3" t="n"/>
+      <c r="AA10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Paranaque City</t>
         </is>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>136765</v>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>Sto. Niño Elementary School</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>CITY OF PARAÑAQUE</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="inlineStr"/>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="H11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>Repair of Classroom to be Used/Converted to School Clinic (7.00m x 9.00m)</t>
         </is>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" s="4" t="n">
         <v>998176.98</v>
       </c>
-      <c r="L11" s="3" t="inlineStr"/>
-      <c r="M11" s="3" t="n">
+      <c r="L11" s="4" t="inlineStr"/>
+      <c r="M11" s="4" t="n">
         <v>716620.8</v>
       </c>
-      <c r="N11" s="3" t="inlineStr">
+      <c r="N11" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3" t="inlineStr">
+      <c r="O11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4" t="inlineStr">
         <is>
           <t>August 18, 2024</t>
         </is>
       </c>
-      <c r="Q11" s="3" t="inlineStr">
+      <c r="Q11" s="4" t="inlineStr">
         <is>
           <t>August 16, 2024</t>
         </is>
       </c>
-      <c r="R11" s="3" t="inlineStr">
+      <c r="R11" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01d</t>
         </is>
       </c>
-      <c r="S11" s="3" t="inlineStr">
+      <c r="S11" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01d</t>
         </is>
       </c>
-      <c r="T11" s="3" t="inlineStr">
+      <c r="T11" s="4" t="inlineStr">
         <is>
           <t>October 30, 2023</t>
         </is>
       </c>
-      <c r="U11" s="3" t="inlineStr">
+      <c r="U11" s="4" t="inlineStr">
         <is>
           <t>November 6, 2023</t>
         </is>
       </c>
-      <c r="V11" s="3" t="inlineStr">
+      <c r="V11" s="4" t="inlineStr">
         <is>
           <t>November 17, 2023</t>
         </is>
       </c>
-      <c r="W11" s="3" t="inlineStr">
+      <c r="W11" s="4" t="inlineStr">
         <is>
           <t>March 21, 2024</t>
         </is>
       </c>
-      <c r="X11" s="3" t="inlineStr">
+      <c r="X11" s="4" t="inlineStr">
         <is>
           <t>June 19, 2024</t>
         </is>
       </c>
-      <c r="Y11" s="3" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>RGDG Construction</t>
         </is>
       </c>
-      <c r="Z11" s="3" t="inlineStr">
+      <c r="Z11" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA11" s="3" t="n"/>
+      <c r="AA11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Paranaque City</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>136761</v>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Col. E. De Leon Elementary School</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>CITY OF PARAÑAQUE</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3" t="inlineStr"/>
-      <c r="J12" s="3" t="inlineStr">
+      <c r="H12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="inlineStr"/>
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>Repair of Classroom to be Used/Converted to School Clinic (7.00m x 9.00m)</t>
         </is>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="K12" s="4" t="n">
         <v>998176.98</v>
       </c>
-      <c r="L12" s="3" t="inlineStr"/>
-      <c r="M12" s="3" t="n">
+      <c r="L12" s="4" t="inlineStr"/>
+      <c r="M12" s="4" t="n">
         <v>716620.8</v>
       </c>
-      <c r="N12" s="3" t="inlineStr">
+      <c r="N12" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3" t="inlineStr">
+      <c r="O12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4" t="inlineStr">
         <is>
           <t>August 18, 2024</t>
         </is>
       </c>
-      <c r="Q12" s="3" t="inlineStr">
+      <c r="Q12" s="4" t="inlineStr">
         <is>
           <t>August 16, 2024</t>
         </is>
       </c>
-      <c r="R12" s="3" t="inlineStr">
+      <c r="R12" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01b</t>
         </is>
       </c>
-      <c r="S12" s="3" t="inlineStr">
+      <c r="S12" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01b</t>
         </is>
       </c>
-      <c r="T12" s="3" t="inlineStr">
+      <c r="T12" s="4" t="inlineStr">
         <is>
           <t>October 30, 2023</t>
         </is>
       </c>
-      <c r="U12" s="3" t="inlineStr">
+      <c r="U12" s="4" t="inlineStr">
         <is>
           <t>November 6, 2023</t>
         </is>
       </c>
-      <c r="V12" s="3" t="inlineStr">
+      <c r="V12" s="4" t="inlineStr">
         <is>
           <t>November 17, 2023</t>
         </is>
       </c>
-      <c r="W12" s="3" t="inlineStr">
+      <c r="W12" s="4" t="inlineStr">
         <is>
           <t>March 21, 2024</t>
         </is>
       </c>
-      <c r="X12" s="3" t="inlineStr">
+      <c r="X12" s="4" t="inlineStr">
         <is>
           <t>June 19, 2024</t>
         </is>
       </c>
-      <c r="Y12" s="3" t="inlineStr">
+      <c r="Y12" s="4" t="inlineStr">
         <is>
           <t>RGDG Construction</t>
         </is>
       </c>
-      <c r="Z12" s="3" t="inlineStr">
+      <c r="Z12" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA12" s="3" t="n"/>
+      <c r="AA12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Paranaque City</t>
         </is>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>137129</v>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>Don Bosco Elementary School</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>CITY OF PARAÑAQUE</t>
         </is>
       </c>
-      <c r="G13" s="3" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3" t="inlineStr"/>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="H13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="inlineStr"/>
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>Repair of Classroom to be Used/Converted to School Clinic (7.00m x 9.00m)</t>
         </is>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="K13" s="4" t="n">
         <v>998176.98</v>
       </c>
-      <c r="L13" s="3" t="inlineStr"/>
-      <c r="M13" s="3" t="n">
+      <c r="L13" s="4" t="inlineStr"/>
+      <c r="M13" s="4" t="n">
         <v>716620.8</v>
       </c>
-      <c r="N13" s="3" t="inlineStr">
+      <c r="N13" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3" t="inlineStr">
+      <c r="O13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4" t="inlineStr">
         <is>
           <t>August 18, 2024</t>
         </is>
       </c>
-      <c r="Q13" s="3" t="inlineStr">
+      <c r="Q13" s="4" t="inlineStr">
         <is>
           <t>August 16, 2024</t>
         </is>
       </c>
-      <c r="R13" s="3" t="inlineStr">
+      <c r="R13" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01c</t>
         </is>
       </c>
-      <c r="S13" s="3" t="inlineStr">
+      <c r="S13" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01c</t>
         </is>
       </c>
-      <c r="T13" s="3" t="inlineStr">
+      <c r="T13" s="4" t="inlineStr">
         <is>
           <t>October 30, 2023</t>
         </is>
       </c>
-      <c r="U13" s="3" t="inlineStr">
+      <c r="U13" s="4" t="inlineStr">
         <is>
           <t>November 6, 2023</t>
         </is>
       </c>
-      <c r="V13" s="3" t="inlineStr">
+      <c r="V13" s="4" t="inlineStr">
         <is>
           <t>November 17, 2023</t>
         </is>
       </c>
-      <c r="W13" s="3" t="inlineStr">
+      <c r="W13" s="4" t="inlineStr">
         <is>
           <t>March 21, 2024</t>
         </is>
       </c>
-      <c r="X13" s="3" t="inlineStr">
+      <c r="X13" s="4" t="inlineStr">
         <is>
           <t>June 19, 2024</t>
         </is>
       </c>
-      <c r="Y13" s="3" t="inlineStr">
+      <c r="Y13" s="4" t="inlineStr">
         <is>
           <t>RGDG Construction</t>
         </is>
       </c>
-      <c r="Z13" s="3" t="inlineStr">
+      <c r="Z13" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA13" s="3" t="n"/>
+      <c r="AA13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Pasig City</t>
         </is>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="4" t="n">
         <v>136717</v>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>Ilugin Elementary School</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>CITY OF PASIG</t>
         </is>
       </c>
-      <c r="G14" s="3" t="inlineStr">
+      <c r="G14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3" t="inlineStr"/>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="H14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="inlineStr"/>
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of clinic</t>
         </is>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="K14" s="4" t="n">
         <v>1290256</v>
       </c>
-      <c r="L14" s="3" t="inlineStr"/>
-      <c r="M14" s="3" t="n">
+      <c r="L14" s="4" t="inlineStr"/>
+      <c r="M14" s="4" t="n">
         <v>997541.22</v>
       </c>
-      <c r="N14" s="3" t="inlineStr">
+      <c r="N14" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3" t="inlineStr">
+      <c r="O14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4" t="inlineStr">
         <is>
           <t>April 10, 2025</t>
         </is>
       </c>
-      <c r="Q14" s="3" t="inlineStr">
+      <c r="Q14" s="4" t="inlineStr">
         <is>
           <t>April 8, 2024</t>
         </is>
       </c>
-      <c r="R14" s="3" t="inlineStr">
+      <c r="R14" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01a</t>
         </is>
       </c>
-      <c r="S14" s="3" t="inlineStr">
+      <c r="S14" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01a</t>
         </is>
       </c>
-      <c r="T14" s="3" t="inlineStr">
+      <c r="T14" s="4" t="inlineStr">
         <is>
           <t>June 27, 2024</t>
         </is>
       </c>
-      <c r="U14" s="3" t="inlineStr">
+      <c r="U14" s="4" t="inlineStr">
         <is>
           <t>July 4, 2024</t>
         </is>
       </c>
-      <c r="V14" s="3" t="inlineStr">
+      <c r="V14" s="4" t="inlineStr">
         <is>
           <t>July 29, 2024</t>
         </is>
       </c>
-      <c r="W14" s="3" t="inlineStr">
+      <c r="W14" s="4" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="X14" s="3" t="inlineStr">
+      <c r="X14" s="4" t="inlineStr">
         <is>
           <t>December 11. 2024</t>
         </is>
       </c>
-      <c r="Y14" s="3" t="inlineStr">
+      <c r="Y14" s="4" t="inlineStr">
         <is>
           <t>Emica Builders and Supply</t>
         </is>
       </c>
-      <c r="Z14" s="3" t="inlineStr"/>
-      <c r="AA14" s="3" t="n"/>
+      <c r="Z14" s="4" t="inlineStr"/>
+      <c r="AA14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Pasig City</t>
         </is>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>136719</v>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>Liberato Damian Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>CITY OF PASIG</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3" t="inlineStr"/>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="H15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4" t="inlineStr"/>
+      <c r="J15" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of clinic</t>
         </is>
       </c>
-      <c r="K15" s="3" t="n">
+      <c r="K15" s="4" t="n">
         <v>1290256</v>
       </c>
-      <c r="L15" s="3" t="inlineStr"/>
-      <c r="M15" s="3" t="n">
+      <c r="L15" s="4" t="inlineStr"/>
+      <c r="M15" s="4" t="n">
         <v>997541.22</v>
       </c>
-      <c r="N15" s="3" t="inlineStr">
+      <c r="N15" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="3" t="inlineStr">
+      <c r="O15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4" t="inlineStr">
         <is>
           <t>April 10, 2025</t>
         </is>
       </c>
-      <c r="Q15" s="3" t="inlineStr">
+      <c r="Q15" s="4" t="inlineStr">
         <is>
           <t>April 8, 2024</t>
         </is>
       </c>
-      <c r="R15" s="3" t="inlineStr">
+      <c r="R15" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01b</t>
         </is>
       </c>
-      <c r="S15" s="3" t="inlineStr">
+      <c r="S15" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01b</t>
         </is>
       </c>
-      <c r="T15" s="3" t="inlineStr">
+      <c r="T15" s="4" t="inlineStr">
         <is>
           <t>June 27, 2024</t>
         </is>
       </c>
-      <c r="U15" s="3" t="inlineStr">
+      <c r="U15" s="4" t="inlineStr">
         <is>
           <t>July 4, 2024</t>
         </is>
       </c>
-      <c r="V15" s="3" t="inlineStr">
+      <c r="V15" s="4" t="inlineStr">
         <is>
           <t>July 29, 2024</t>
         </is>
       </c>
-      <c r="W15" s="3" t="inlineStr">
+      <c r="W15" s="4" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="X15" s="3" t="inlineStr">
+      <c r="X15" s="4" t="inlineStr">
         <is>
           <t>December 11. 2024</t>
         </is>
       </c>
-      <c r="Y15" s="3" t="inlineStr">
+      <c r="Y15" s="4" t="inlineStr">
         <is>
           <t>Emica Builders and Supply</t>
         </is>
       </c>
-      <c r="Z15" s="3" t="inlineStr"/>
-      <c r="AA15" s="3" t="n"/>
+      <c r="Z15" s="4" t="inlineStr"/>
+      <c r="AA15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Taguig City and Pateros</t>
         </is>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <v>136883</v>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>Cipriano P. Sta. Teresa Elementary School</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>TAGUIG CITY</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3" t="inlineStr"/>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="H16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4" t="inlineStr"/>
+      <c r="J16" s="4" t="inlineStr">
         <is>
           <t>Repair of School Clinic 
 (9.8 x 11.50m)</t>
         </is>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="K16" s="4" t="n">
         <v>1300000</v>
       </c>
-      <c r="L16" s="3" t="inlineStr"/>
-      <c r="M16" s="3" t="n">
+      <c r="L16" s="4" t="inlineStr"/>
+      <c r="M16" s="4" t="n">
         <v>1269999.79</v>
       </c>
-      <c r="N16" s="3" t="inlineStr">
+      <c r="N16" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3" t="inlineStr">
+      <c r="O16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4" t="inlineStr">
         <is>
           <t>March 14, 2025</t>
         </is>
       </c>
-      <c r="Q16" s="3" t="inlineStr">
+      <c r="Q16" s="4" t="inlineStr">
         <is>
           <t>April 22, 2025</t>
         </is>
       </c>
-      <c r="R16" s="3" t="inlineStr">
+      <c r="R16" s="4" t="inlineStr">
         <is>
           <t>DTP-CY2024-infra-001</t>
         </is>
       </c>
-      <c r="S16" s="3" t="inlineStr">
+      <c r="S16" s="4" t="inlineStr">
         <is>
           <t>DTP-CY2024-infra-001</t>
         </is>
       </c>
-      <c r="T16" s="3" t="inlineStr">
+      <c r="T16" s="4" t="inlineStr">
         <is>
           <t>July 31, 2024</t>
         </is>
       </c>
-      <c r="U16" s="3" t="inlineStr">
+      <c r="U16" s="4" t="inlineStr">
         <is>
           <t>August 7, 2024</t>
         </is>
       </c>
-      <c r="V16" s="3" t="inlineStr">
+      <c r="V16" s="4" t="inlineStr">
         <is>
           <t>August 19, 2024</t>
         </is>
       </c>
-      <c r="W16" s="3" t="inlineStr">
+      <c r="W16" s="4" t="inlineStr">
         <is>
           <t>August 27, 2024</t>
         </is>
       </c>
-      <c r="X16" s="3" t="inlineStr">
+      <c r="X16" s="4" t="inlineStr">
         <is>
           <t>January 3, 2025</t>
         </is>
       </c>
-      <c r="Y16" s="3" t="inlineStr">
+      <c r="Y16" s="4" t="inlineStr">
         <is>
           <t>Jepa Construction and Development Corp.</t>
         </is>
       </c>
-      <c r="Z16" s="3" t="inlineStr">
+      <c r="Z16" s="4" t="inlineStr">
         <is>
           <t>with subaro downloaded already batch 15</t>
         </is>
       </c>
-      <c r="AA16" s="3" t="n"/>
+      <c r="AA16" s="5" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Taguig City and Pateros</t>
         </is>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="4" t="n">
         <v>136881</v>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>Bagong Tanyag Elementary School - Annex A</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>TAGUIG CITY</t>
         </is>
       </c>
-      <c r="G17" s="3" t="inlineStr">
+      <c r="G17" s="4" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3" t="inlineStr"/>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="H17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4" t="inlineStr"/>
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary (Option 3A - One-Sided, with Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="K17" s="4" t="n">
         <v>350000</v>
       </c>
-      <c r="L17" s="3" t="inlineStr"/>
-      <c r="M17" s="3" t="n">
+      <c r="L17" s="4" t="inlineStr"/>
+      <c r="M17" s="4" t="n">
         <v>347254.52</v>
       </c>
-      <c r="N17" s="3" t="inlineStr">
+      <c r="N17" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="3" t="inlineStr">
+      <c r="O17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4" t="inlineStr">
         <is>
           <t>November 27, 2024</t>
         </is>
       </c>
-      <c r="Q17" s="3" t="inlineStr">
+      <c r="Q17" s="4" t="inlineStr">
         <is>
           <t>November 11, 2024</t>
         </is>
       </c>
-      <c r="R17" s="3" t="inlineStr">
+      <c r="R17" s="4" t="inlineStr">
         <is>
           <t>DTP-CY2024-infra-054</t>
         </is>
       </c>
-      <c r="S17" s="3" t="inlineStr">
+      <c r="S17" s="4" t="inlineStr">
         <is>
           <t>BAC-SVP-2024-40</t>
         </is>
       </c>
-      <c r="T17" s="3" t="inlineStr">
+      <c r="T17" s="4" t="inlineStr">
         <is>
           <t>August 1, 2024</t>
         </is>
       </c>
-      <c r="U17" s="3" t="inlineStr">
+      <c r="U17" s="4" t="inlineStr">
         <is>
           <t>August 5, 2024</t>
         </is>
       </c>
-      <c r="V17" s="3" t="inlineStr">
+      <c r="V17" s="4" t="inlineStr">
         <is>
           <t>August 5, 2024</t>
         </is>
       </c>
-      <c r="W17" s="3" t="inlineStr">
+      <c r="W17" s="4" t="inlineStr">
         <is>
           <t>August 8, 2024</t>
         </is>
       </c>
-      <c r="X17" s="3" t="inlineStr">
+      <c r="X17" s="4" t="inlineStr">
         <is>
           <t>October 14, 2024</t>
         </is>
       </c>
-      <c r="Y17" s="3" t="inlineStr">
+      <c r="Y17" s="4" t="inlineStr">
         <is>
           <t>Sherf Builders Corporation</t>
         </is>
       </c>
-      <c r="Z17" s="3" t="inlineStr">
+      <c r="Z17" s="4" t="inlineStr">
         <is>
           <t>with subaro downloaded already batch 13</t>
         </is>
       </c>
-      <c r="AA17" s="3" t="n"/>
+      <c r="AA17" s="5" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/NCR/NCR_HEALTH.xlsx
+++ b/Filtered_By_Region/NCR/NCR_HEALTH.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">

--- a/Filtered_By_Region/NCR/NCR_HEALTH.xlsx
+++ b/Filtered_By_Region/NCR/NCR_HEALTH.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -449,1984 +449,2038 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="43" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="131" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="17" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="43" customWidth="1" min="6" max="6"/>
+    <col width="21" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="131" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
-    <col width="27" customWidth="1" min="17" max="17"/>
-    <col width="26" customWidth="1" min="18" max="18"/>
-    <col width="22" customWidth="1" min="19" max="19"/>
-    <col width="31" customWidth="1" min="20" max="20"/>
-    <col width="27" customWidth="1" min="21" max="21"/>
-    <col width="19" customWidth="1" min="22" max="22"/>
-    <col width="33" customWidth="1" min="23" max="23"/>
-    <col width="31" customWidth="1" min="24" max="24"/>
-    <col width="41" customWidth="1" min="25" max="25"/>
-    <col width="60" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="26" customWidth="1" min="19" max="19"/>
+    <col width="22" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="19" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="41" customWidth="1" min="26" max="26"/>
+    <col width="60" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="S1" s="2" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="T1" s="2" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="U1" s="2" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="W1" s="2" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="X1" s="2" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="Y1" s="2" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="Z1" s="2" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="AA1" s="3" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AB1" s="3" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>City of San Juan</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="E2" s="4" t="n">
         <v>136751</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>Pinaglabanan ES</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>CITY OF SAN JUAN</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="inlineStr"/>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="I2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="inlineStr"/>
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities (with Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="L2" s="4" t="n">
         <v>943148.5</v>
       </c>
-      <c r="L2" s="4" t="inlineStr"/>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="4" t="inlineStr"/>
+      <c r="N2" s="4" t="n">
         <v>933992.7</v>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>February 28, 2025</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>February 7, 2025</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>WINS2024-NCR-SANJUAN-002</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>INFRA2024-004</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>July 8, 2025</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>July 18, 2024</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>November 11, 2024</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>December 20, 2024</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Z2" s="4" t="inlineStr">
         <is>
           <t>Sherf Builders Corp</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="inlineStr">
+      <c r="AA2" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA2" s="5" t="n"/>
+      <c r="AB2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>City of San Juan</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="E3" s="4" t="n">
         <v>136746</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>San Juan ES</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>CITY OF SAN JUAN</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="inlineStr"/>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="I3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="inlineStr"/>
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities (with Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="L3" s="4" t="n">
         <v>1098292.86</v>
       </c>
-      <c r="L3" s="4" t="inlineStr"/>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="4" t="inlineStr"/>
+      <c r="N3" s="4" t="n">
         <v>884385.37</v>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4" t="inlineStr">
         <is>
           <t>October 14, 2024</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>September 26, 2024</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>WINS2024-NCR-SANJUAN-001</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>INFRA-2024-001</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>December 8, 2023</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>December 15, 2023</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
         <is>
           <t>January 4, 2024</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>January 9, 2024</t>
         </is>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>August 14, 2024</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Z3" s="4" t="inlineStr">
         <is>
           <t>J.G Mendoza Builders</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="inlineStr">
+      <c r="AA3" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA3" s="5" t="n"/>
+      <c r="AB3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>City of San Juan</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="E4" s="4" t="n">
         <v>305423</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>San Juan National High School</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>CITY OF SAN JUAN</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="inlineStr"/>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="I4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="inlineStr"/>
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities (with Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="L4" s="4" t="n">
         <v>558579.85</v>
       </c>
-      <c r="L4" s="4" t="inlineStr"/>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="4" t="inlineStr"/>
+      <c r="N4" s="4" t="n">
         <v>553107.2</v>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4" t="inlineStr">
+      <c r="P4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4" t="inlineStr">
         <is>
           <t>February 17, 2025</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>February 7, 2025</t>
         </is>
       </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>WINS2024-NCR-SANJUAN-002</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>INFRA2024-004</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>July 8, 2025</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
         <is>
           <t>July 18, 2024</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>November 11, 2024</t>
         </is>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>December 20, 2024</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Z4" s="4" t="inlineStr">
         <is>
           <t>Sherf Builders Corp</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr">
+      <c r="AA4" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA4" s="5" t="n"/>
+      <c r="AB4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Makati City</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="E5" s="4" t="n">
         <v>136703</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Hen. Pio del Pilar ES Main</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>CITY OF MAKATI</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="inlineStr"/>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="I5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="inlineStr"/>
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Repair of School Clinic</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="L5" s="4" t="n">
         <v>750000</v>
       </c>
-      <c r="L5" s="4" t="inlineStr"/>
-      <c r="M5" s="4" t="n">
+      <c r="M5" s="4" t="inlineStr"/>
+      <c r="N5" s="4" t="n">
         <v>748911.83</v>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="P5" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr">
         <is>
           <t>July 18, 2025</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="R5" s="4" t="inlineStr"/>
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>PB-SDO-MKT-2024-008</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>SDO-MKT-25-013</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>November 29, 2024</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>December 6, 2024</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
         <is>
           <t>December 18, 2024</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>December 23, 2024</t>
         </is>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>May 19, 2025</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>J.R.C.F Construction</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
+      <c r="AA5" s="4" t="inlineStr">
         <is>
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA5" s="5" t="n"/>
+      <c r="AB5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>Mandaluyong City</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="E6" s="4" t="n">
         <v>500332</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Highway Hills Integrated School</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>CITY OF MANDALUYONG</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="I6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="inlineStr"/>
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>Repair of classroom to be used/Converted to School Clinic</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="L6" s="4" t="n">
         <v>750563.88</v>
       </c>
-      <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="4" t="inlineStr"/>
+      <c r="N6" s="4" t="n">
         <v>723815.73</v>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="P6" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="Q6" s="4" t="inlineStr">
         <is>
           <t>March 20, 2025</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>March 20, 2025</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>MANDALUYONG-003</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>OSEC-NCR-221-7805</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>October 24, 2024</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>November 5, 2024</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="W6" s="4" t="inlineStr">
         <is>
           <t>November 12, 2024</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>November 13, 2024</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>January 6, 2025</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Z6" s="4" t="inlineStr">
         <is>
           <t>MAAV CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="AA6" s="4" t="inlineStr">
         <is>
           <t>for mobilization; with subaro downloaded already; Batch 15</t>
         </is>
       </c>
-      <c r="AA6" s="5" t="n"/>
+      <c r="AB6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Manila</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="E7" s="4" t="n">
         <v>136436</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>A. V. Hernandez Elementary School</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>TONDO</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="inlineStr"/>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="I7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="inlineStr"/>
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="L7" s="4" t="n">
         <v>5000000</v>
       </c>
-      <c r="L7" s="4" t="inlineStr"/>
-      <c r="M7" s="4" t="n">
+      <c r="M7" s="4" t="inlineStr"/>
+      <c r="N7" s="4" t="n">
         <v>4949991.33</v>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
+      <c r="P7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>November 24, 2024</t>
         </is>
       </c>
-      <c r="Q7" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>May 6, 2025</t>
         </is>
       </c>
-      <c r="R7" s="4" t="inlineStr"/>
       <c r="S7" s="4" t="inlineStr"/>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr"/>
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>May 8, 2024</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>May 18, 2024</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>May 28, 2024</t>
         </is>
       </c>
-      <c r="W7" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>LARZEN-DUTHCER CONSTRACTOR CORPORATION</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Delayed due to double handling and typhoons</t>
         </is>
       </c>
-      <c r="AA7" s="5" t="n"/>
+      <c r="AB7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Manila</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="E8" s="4" t="n">
         <v>136428</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>Gregoria de Jesus ES</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>TONDO</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="inlineStr"/>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="I8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="inlineStr"/>
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="L8" s="4" t="n">
         <v>5000000</v>
       </c>
-      <c r="L8" s="4" t="inlineStr"/>
-      <c r="M8" s="4" t="n">
+      <c r="M8" s="4" t="inlineStr"/>
+      <c r="N8" s="4" t="n">
         <v>3761368.61</v>
       </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="O8" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4" t="inlineStr">
+      <c r="P8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="inlineStr">
         <is>
           <t>November 24, 2024</t>
         </is>
       </c>
-      <c r="Q8" s="4" t="inlineStr">
+      <c r="R8" s="4" t="inlineStr">
         <is>
           <t>December 2, 2024</t>
         </is>
       </c>
-      <c r="R8" s="4" t="inlineStr"/>
       <c r="S8" s="4" t="inlineStr"/>
-      <c r="T8" s="4" t="inlineStr">
+      <c r="T8" s="4" t="inlineStr"/>
+      <c r="U8" s="4" t="inlineStr">
         <is>
           <t>May 8, 2024</t>
         </is>
       </c>
-      <c r="U8" s="4" t="inlineStr">
+      <c r="V8" s="4" t="inlineStr">
         <is>
           <t>May 18, 2024</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr">
+      <c r="W8" s="4" t="inlineStr">
         <is>
           <t>May 28, 2024</t>
         </is>
       </c>
-      <c r="W8" s="4" t="inlineStr">
+      <c r="X8" s="4" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="X8" s="4" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Z8" s="4" t="inlineStr">
         <is>
           <t>OPEN BUILDERS INCORPORATED</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="inlineStr"/>
-      <c r="AA8" s="5" t="n"/>
+      <c r="AA8" s="4" t="inlineStr"/>
+      <c r="AB8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>Muntinlupa City</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="E9" s="4" t="n">
         <v>136903</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>Muntinlupa ES</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>CITY OF MUNTINLUPA</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="inlineStr"/>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="I9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="inlineStr"/>
+      <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Repair of School Clinic</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="L9" s="4" t="n">
         <v>947962.5699999999</v>
       </c>
-      <c r="L9" s="4" t="inlineStr"/>
-      <c r="M9" s="4" t="n">
+      <c r="M9" s="4" t="inlineStr"/>
+      <c r="N9" s="4" t="n">
         <v>943482.23</v>
       </c>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="O9" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4" t="inlineStr">
+      <c r="P9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4" t="inlineStr">
         <is>
           <t>December 3, 2024</t>
         </is>
       </c>
-      <c r="Q9" s="4" t="inlineStr">
+      <c r="R9" s="4" t="inlineStr">
         <is>
           <t>December 3, 2024</t>
         </is>
       </c>
-      <c r="R9" s="4" t="inlineStr">
+      <c r="S9" s="4" t="inlineStr">
         <is>
           <t>2024-006</t>
         </is>
       </c>
-      <c r="S9" s="4" t="inlineStr">
+      <c r="T9" s="4" t="inlineStr">
         <is>
           <t>2024-006</t>
         </is>
       </c>
-      <c r="T9" s="4" t="inlineStr">
+      <c r="U9" s="4" t="inlineStr">
         <is>
           <t>June 21, 2024</t>
         </is>
       </c>
-      <c r="U9" s="4" t="inlineStr">
+      <c r="V9" s="4" t="inlineStr">
         <is>
           <t>June 24, 2024</t>
         </is>
       </c>
-      <c r="V9" s="4" t="inlineStr">
+      <c r="W9" s="4" t="inlineStr">
         <is>
           <t>June 26, 2024</t>
         </is>
       </c>
-      <c r="W9" s="4" t="inlineStr">
+      <c r="X9" s="4" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="X9" s="4" t="inlineStr">
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>September 4, 2024</t>
         </is>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Z9" s="4" t="inlineStr">
         <is>
           <t>Ayana Construction</t>
         </is>
       </c>
-      <c r="Z9" s="4" t="inlineStr">
+      <c r="AA9" s="4" t="inlineStr">
         <is>
           <t>Received sub-aro August 12, 2024</t>
         </is>
       </c>
-      <c r="AA9" s="5" t="n"/>
+      <c r="AB9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>Paranaque City</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="E10" s="4" t="n">
         <v>136769</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>Baclaran Elementary School Unit II</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>CITY OF PARAÑAQUE</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="inlineStr"/>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="I10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="inlineStr"/>
+      <c r="K10" s="4" t="inlineStr">
         <is>
           <t>Repair of Classroom to be Used/Converted to School Clinic (7.00m x 9.00m)</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="L10" s="4" t="n">
         <v>998176.98</v>
       </c>
-      <c r="L10" s="4" t="inlineStr"/>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="4" t="inlineStr"/>
+      <c r="N10" s="4" t="n">
         <v>716620.8</v>
       </c>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4" t="inlineStr">
+      <c r="P10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4" t="inlineStr">
         <is>
           <t>August 18, 2024</t>
         </is>
       </c>
-      <c r="Q10" s="4" t="inlineStr">
+      <c r="R10" s="4" t="inlineStr">
         <is>
           <t>August 16, 2024</t>
         </is>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="S10" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01a</t>
         </is>
       </c>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="T10" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01a</t>
         </is>
       </c>
-      <c r="T10" s="4" t="inlineStr">
+      <c r="U10" s="4" t="inlineStr">
         <is>
           <t>October 30, 2023</t>
         </is>
       </c>
-      <c r="U10" s="4" t="inlineStr">
+      <c r="V10" s="4" t="inlineStr">
         <is>
           <t>November 6, 2023</t>
         </is>
       </c>
-      <c r="V10" s="4" t="inlineStr">
+      <c r="W10" s="4" t="inlineStr">
         <is>
           <t>November 17, 2023</t>
         </is>
       </c>
-      <c r="W10" s="4" t="inlineStr">
+      <c r="X10" s="4" t="inlineStr">
         <is>
           <t>March 21, 2024</t>
         </is>
       </c>
-      <c r="X10" s="4" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>June 19, 2024</t>
         </is>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Z10" s="4" t="inlineStr">
         <is>
           <t>RGDG Construction</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="inlineStr">
+      <c r="AA10" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA10" s="5" t="n"/>
+      <c r="AB10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>Paranaque City</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="E11" s="4" t="n">
         <v>136765</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>Sto. Niño Elementary School</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>CITY OF PARAÑAQUE</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="inlineStr"/>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="I11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="inlineStr"/>
+      <c r="K11" s="4" t="inlineStr">
         <is>
           <t>Repair of Classroom to be Used/Converted to School Clinic (7.00m x 9.00m)</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="L11" s="4" t="n">
         <v>998176.98</v>
       </c>
-      <c r="L11" s="4" t="inlineStr"/>
-      <c r="M11" s="4" t="n">
+      <c r="M11" s="4" t="inlineStr"/>
+      <c r="N11" s="4" t="n">
         <v>716620.8</v>
       </c>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="4" t="inlineStr">
+      <c r="P11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4" t="inlineStr">
         <is>
           <t>August 18, 2024</t>
         </is>
       </c>
-      <c r="Q11" s="4" t="inlineStr">
+      <c r="R11" s="4" t="inlineStr">
         <is>
           <t>August 16, 2024</t>
         </is>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="S11" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01d</t>
         </is>
       </c>
-      <c r="S11" s="4" t="inlineStr">
+      <c r="T11" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01d</t>
         </is>
       </c>
-      <c r="T11" s="4" t="inlineStr">
+      <c r="U11" s="4" t="inlineStr">
         <is>
           <t>October 30, 2023</t>
         </is>
       </c>
-      <c r="U11" s="4" t="inlineStr">
+      <c r="V11" s="4" t="inlineStr">
         <is>
           <t>November 6, 2023</t>
         </is>
       </c>
-      <c r="V11" s="4" t="inlineStr">
+      <c r="W11" s="4" t="inlineStr">
         <is>
           <t>November 17, 2023</t>
         </is>
       </c>
-      <c r="W11" s="4" t="inlineStr">
+      <c r="X11" s="4" t="inlineStr">
         <is>
           <t>March 21, 2024</t>
         </is>
       </c>
-      <c r="X11" s="4" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>June 19, 2024</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Z11" s="4" t="inlineStr">
         <is>
           <t>RGDG Construction</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="inlineStr">
+      <c r="AA11" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA11" s="5" t="n"/>
+      <c r="AB11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>Paranaque City</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="E12" s="4" t="n">
         <v>136761</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>Col. E. De Leon Elementary School</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr">
         <is>
           <t>CITY OF PARAÑAQUE</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="inlineStr"/>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="I12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="inlineStr"/>
+      <c r="K12" s="4" t="inlineStr">
         <is>
           <t>Repair of Classroom to be Used/Converted to School Clinic (7.00m x 9.00m)</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="L12" s="4" t="n">
         <v>998176.98</v>
       </c>
-      <c r="L12" s="4" t="inlineStr"/>
-      <c r="M12" s="4" t="n">
+      <c r="M12" s="4" t="inlineStr"/>
+      <c r="N12" s="4" t="n">
         <v>716620.8</v>
       </c>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="O12" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4" t="inlineStr">
+      <c r="P12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4" t="inlineStr">
         <is>
           <t>August 18, 2024</t>
         </is>
       </c>
-      <c r="Q12" s="4" t="inlineStr">
+      <c r="R12" s="4" t="inlineStr">
         <is>
           <t>August 16, 2024</t>
         </is>
       </c>
-      <c r="R12" s="4" t="inlineStr">
+      <c r="S12" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01b</t>
         </is>
       </c>
-      <c r="S12" s="4" t="inlineStr">
+      <c r="T12" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01b</t>
         </is>
       </c>
-      <c r="T12" s="4" t="inlineStr">
+      <c r="U12" s="4" t="inlineStr">
         <is>
           <t>October 30, 2023</t>
         </is>
       </c>
-      <c r="U12" s="4" t="inlineStr">
+      <c r="V12" s="4" t="inlineStr">
         <is>
           <t>November 6, 2023</t>
         </is>
       </c>
-      <c r="V12" s="4" t="inlineStr">
+      <c r="W12" s="4" t="inlineStr">
         <is>
           <t>November 17, 2023</t>
         </is>
       </c>
-      <c r="W12" s="4" t="inlineStr">
+      <c r="X12" s="4" t="inlineStr">
         <is>
           <t>March 21, 2024</t>
         </is>
       </c>
-      <c r="X12" s="4" t="inlineStr">
+      <c r="Y12" s="4" t="inlineStr">
         <is>
           <t>June 19, 2024</t>
         </is>
       </c>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="Z12" s="4" t="inlineStr">
         <is>
           <t>RGDG Construction</t>
         </is>
       </c>
-      <c r="Z12" s="4" t="inlineStr">
+      <c r="AA12" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA12" s="5" t="n"/>
+      <c r="AB12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>Paranaque City</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="E13" s="4" t="n">
         <v>137129</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>Don Bosco Elementary School</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>CITY OF PARAÑAQUE</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="inlineStr"/>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="I13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="inlineStr"/>
+      <c r="K13" s="4" t="inlineStr">
         <is>
           <t>Repair of Classroom to be Used/Converted to School Clinic (7.00m x 9.00m)</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="L13" s="4" t="n">
         <v>998176.98</v>
       </c>
-      <c r="L13" s="4" t="inlineStr"/>
-      <c r="M13" s="4" t="n">
+      <c r="M13" s="4" t="inlineStr"/>
+      <c r="N13" s="4" t="n">
         <v>716620.8</v>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="O13" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="4" t="inlineStr">
+      <c r="P13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4" t="inlineStr">
         <is>
           <t>August 18, 2024</t>
         </is>
       </c>
-      <c r="Q13" s="4" t="inlineStr">
+      <c r="R13" s="4" t="inlineStr">
         <is>
           <t>August 16, 2024</t>
         </is>
       </c>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="S13" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01c</t>
         </is>
       </c>
-      <c r="S13" s="4" t="inlineStr">
+      <c r="T13" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01c</t>
         </is>
       </c>
-      <c r="T13" s="4" t="inlineStr">
+      <c r="U13" s="4" t="inlineStr">
         <is>
           <t>October 30, 2023</t>
         </is>
       </c>
-      <c r="U13" s="4" t="inlineStr">
+      <c r="V13" s="4" t="inlineStr">
         <is>
           <t>November 6, 2023</t>
         </is>
       </c>
-      <c r="V13" s="4" t="inlineStr">
+      <c r="W13" s="4" t="inlineStr">
         <is>
           <t>November 17, 2023</t>
         </is>
       </c>
-      <c r="W13" s="4" t="inlineStr">
+      <c r="X13" s="4" t="inlineStr">
         <is>
           <t>March 21, 2024</t>
         </is>
       </c>
-      <c r="X13" s="4" t="inlineStr">
+      <c r="Y13" s="4" t="inlineStr">
         <is>
           <t>June 19, 2024</t>
         </is>
       </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="Z13" s="4" t="inlineStr">
         <is>
           <t>RGDG Construction</t>
         </is>
       </c>
-      <c r="Z13" s="4" t="inlineStr">
+      <c r="AA13" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA13" s="5" t="n"/>
+      <c r="AB13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>Pasig City</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="E14" s="4" t="n">
         <v>136717</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>Ilugin Elementary School</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="G14" s="4" t="inlineStr">
         <is>
           <t>CITY OF PASIG</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="inlineStr"/>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="I14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4" t="inlineStr"/>
+      <c r="K14" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of clinic</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="L14" s="4" t="n">
         <v>1290256</v>
       </c>
-      <c r="L14" s="4" t="inlineStr"/>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="4" t="inlineStr"/>
+      <c r="N14" s="4" t="n">
         <v>997541.22</v>
       </c>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="O14" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="4" t="inlineStr">
+      <c r="P14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4" t="inlineStr">
         <is>
           <t>April 10, 2025</t>
         </is>
       </c>
-      <c r="Q14" s="4" t="inlineStr">
+      <c r="R14" s="4" t="inlineStr">
         <is>
           <t>April 8, 2024</t>
         </is>
       </c>
-      <c r="R14" s="4" t="inlineStr">
+      <c r="S14" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01a</t>
         </is>
       </c>
-      <c r="S14" s="4" t="inlineStr">
+      <c r="T14" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01a</t>
         </is>
       </c>
-      <c r="T14" s="4" t="inlineStr">
+      <c r="U14" s="4" t="inlineStr">
         <is>
           <t>June 27, 2024</t>
         </is>
       </c>
-      <c r="U14" s="4" t="inlineStr">
+      <c r="V14" s="4" t="inlineStr">
         <is>
           <t>July 4, 2024</t>
         </is>
       </c>
-      <c r="V14" s="4" t="inlineStr">
+      <c r="W14" s="4" t="inlineStr">
         <is>
           <t>July 29, 2024</t>
         </is>
       </c>
-      <c r="W14" s="4" t="inlineStr">
+      <c r="X14" s="4" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="X14" s="4" t="inlineStr">
+      <c r="Y14" s="4" t="inlineStr">
         <is>
           <t>December 11. 2024</t>
         </is>
       </c>
-      <c r="Y14" s="4" t="inlineStr">
+      <c r="Z14" s="4" t="inlineStr">
         <is>
           <t>Emica Builders and Supply</t>
         </is>
       </c>
-      <c r="Z14" s="4" t="inlineStr"/>
-      <c r="AA14" s="5" t="n"/>
+      <c r="AA14" s="4" t="inlineStr"/>
+      <c r="AB14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>Pasig City</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="E15" s="4" t="n">
         <v>136719</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>Liberato Damian Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t>CITY OF PASIG</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="inlineStr"/>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="I15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4" t="inlineStr"/>
+      <c r="K15" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of clinic</t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="L15" s="4" t="n">
         <v>1290256</v>
       </c>
-      <c r="L15" s="4" t="inlineStr"/>
-      <c r="M15" s="4" t="n">
+      <c r="M15" s="4" t="inlineStr"/>
+      <c r="N15" s="4" t="n">
         <v>997541.22</v>
       </c>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="O15" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="4" t="inlineStr">
+      <c r="P15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4" t="inlineStr">
         <is>
           <t>April 10, 2025</t>
         </is>
       </c>
-      <c r="Q15" s="4" t="inlineStr">
+      <c r="R15" s="4" t="inlineStr">
         <is>
           <t>April 8, 2024</t>
         </is>
       </c>
-      <c r="R15" s="4" t="inlineStr">
+      <c r="S15" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01b</t>
         </is>
       </c>
-      <c r="S15" s="4" t="inlineStr">
+      <c r="T15" s="4" t="inlineStr">
         <is>
           <t>PB-2024-Infra01b</t>
         </is>
       </c>
-      <c r="T15" s="4" t="inlineStr">
+      <c r="U15" s="4" t="inlineStr">
         <is>
           <t>June 27, 2024</t>
         </is>
       </c>
-      <c r="U15" s="4" t="inlineStr">
+      <c r="V15" s="4" t="inlineStr">
         <is>
           <t>July 4, 2024</t>
         </is>
       </c>
-      <c r="V15" s="4" t="inlineStr">
+      <c r="W15" s="4" t="inlineStr">
         <is>
           <t>July 29, 2024</t>
         </is>
       </c>
-      <c r="W15" s="4" t="inlineStr">
+      <c r="X15" s="4" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="X15" s="4" t="inlineStr">
+      <c r="Y15" s="4" t="inlineStr">
         <is>
           <t>December 11. 2024</t>
         </is>
       </c>
-      <c r="Y15" s="4" t="inlineStr">
+      <c r="Z15" s="4" t="inlineStr">
         <is>
           <t>Emica Builders and Supply</t>
         </is>
       </c>
-      <c r="Z15" s="4" t="inlineStr"/>
-      <c r="AA15" s="5" t="n"/>
+      <c r="AA15" s="4" t="inlineStr"/>
+      <c r="AB15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>Taguig City and Pateros</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="E16" s="4" t="n">
         <v>136883</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>Cipriano P. Sta. Teresa Elementary School</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
         <is>
           <t>TAGUIG CITY</t>
         </is>
       </c>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="H16" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="inlineStr"/>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="I16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="inlineStr"/>
+      <c r="K16" s="4" t="inlineStr">
         <is>
           <t>Repair of School Clinic 
 (9.8 x 11.50m)</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="L16" s="4" t="n">
         <v>1300000</v>
       </c>
-      <c r="L16" s="4" t="inlineStr"/>
-      <c r="M16" s="4" t="n">
+      <c r="M16" s="4" t="inlineStr"/>
+      <c r="N16" s="4" t="n">
         <v>1269999.79</v>
       </c>
-      <c r="N16" s="4" t="inlineStr">
+      <c r="O16" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="4" t="inlineStr">
+      <c r="P16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4" t="inlineStr">
         <is>
           <t>March 14, 2025</t>
         </is>
       </c>
-      <c r="Q16" s="4" t="inlineStr">
+      <c r="R16" s="4" t="inlineStr">
         <is>
           <t>April 22, 2025</t>
         </is>
       </c>
-      <c r="R16" s="4" t="inlineStr">
+      <c r="S16" s="4" t="inlineStr">
         <is>
           <t>DTP-CY2024-infra-001</t>
         </is>
       </c>
-      <c r="S16" s="4" t="inlineStr">
+      <c r="T16" s="4" t="inlineStr">
         <is>
           <t>DTP-CY2024-infra-001</t>
         </is>
       </c>
-      <c r="T16" s="4" t="inlineStr">
+      <c r="U16" s="4" t="inlineStr">
         <is>
           <t>July 31, 2024</t>
         </is>
       </c>
-      <c r="U16" s="4" t="inlineStr">
+      <c r="V16" s="4" t="inlineStr">
         <is>
           <t>August 7, 2024</t>
         </is>
       </c>
-      <c r="V16" s="4" t="inlineStr">
+      <c r="W16" s="4" t="inlineStr">
         <is>
           <t>August 19, 2024</t>
         </is>
       </c>
-      <c r="W16" s="4" t="inlineStr">
+      <c r="X16" s="4" t="inlineStr">
         <is>
           <t>August 27, 2024</t>
         </is>
       </c>
-      <c r="X16" s="4" t="inlineStr">
+      <c r="Y16" s="4" t="inlineStr">
         <is>
           <t>January 3, 2025</t>
         </is>
       </c>
-      <c r="Y16" s="4" t="inlineStr">
+      <c r="Z16" s="4" t="inlineStr">
         <is>
           <t>Jepa Construction and Development Corp.</t>
         </is>
       </c>
-      <c r="Z16" s="4" t="inlineStr">
+      <c r="AA16" s="4" t="inlineStr">
         <is>
           <t>with subaro downloaded already batch 15</t>
         </is>
       </c>
-      <c r="AA16" s="5" t="n"/>
+      <c r="AB16" s="5" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>NCR</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>Taguig City and Pateros</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="E17" s="4" t="n">
         <v>136881</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>Bagong Tanyag Elementary School - Annex A</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="G17" s="4" t="inlineStr">
         <is>
           <t>TAGUIG CITY</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="inlineStr"/>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="I17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="inlineStr"/>
+      <c r="K17" s="4" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary (Option 3A - One-Sided, with Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="L17" s="4" t="n">
         <v>350000</v>
       </c>
-      <c r="L17" s="4" t="inlineStr"/>
-      <c r="M17" s="4" t="n">
+      <c r="M17" s="4" t="inlineStr"/>
+      <c r="N17" s="4" t="n">
         <v>347254.52</v>
       </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="O17" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="4" t="inlineStr">
+      <c r="P17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4" t="inlineStr">
         <is>
           <t>November 27, 2024</t>
         </is>
       </c>
-      <c r="Q17" s="4" t="inlineStr">
+      <c r="R17" s="4" t="inlineStr">
         <is>
           <t>November 11, 2024</t>
         </is>
       </c>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="S17" s="4" t="inlineStr">
         <is>
           <t>DTP-CY2024-infra-054</t>
         </is>
       </c>
-      <c r="S17" s="4" t="inlineStr">
+      <c r="T17" s="4" t="inlineStr">
         <is>
           <t>BAC-SVP-2024-40</t>
         </is>
       </c>
-      <c r="T17" s="4" t="inlineStr">
+      <c r="U17" s="4" t="inlineStr">
         <is>
           <t>August 1, 2024</t>
         </is>
       </c>
-      <c r="U17" s="4" t="inlineStr">
+      <c r="V17" s="4" t="inlineStr">
         <is>
           <t>August 5, 2024</t>
         </is>
       </c>
-      <c r="V17" s="4" t="inlineStr">
+      <c r="W17" s="4" t="inlineStr">
         <is>
           <t>August 5, 2024</t>
         </is>
       </c>
-      <c r="W17" s="4" t="inlineStr">
+      <c r="X17" s="4" t="inlineStr">
         <is>
           <t>August 8, 2024</t>
         </is>
       </c>
-      <c r="X17" s="4" t="inlineStr">
+      <c r="Y17" s="4" t="inlineStr">
         <is>
           <t>October 14, 2024</t>
         </is>
       </c>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="Z17" s="4" t="inlineStr">
         <is>
           <t>Sherf Builders Corporation</t>
         </is>
       </c>
-      <c r="Z17" s="4" t="inlineStr">
+      <c r="AA17" s="4" t="inlineStr">
         <is>
           <t>with subaro downloaded already batch 13</t>
         </is>
       </c>
-      <c r="AA17" s="5" t="n"/>
+      <c r="AB17" s="5" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
